--- a/Datas/Skills.xlsx
+++ b/Datas/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DFD994-7430-4E6C-B911-DB625EC1E78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8748A-D494-49FB-A0A8-36B09B4F7279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09B82691-0FBA-46A1-9333-30E97AB679FE}"/>
+    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{09B82691-0FBA-46A1-9333-30E97AB679FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>##var</t>
   </si>
@@ -59,61 +59,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>NormalAttack</t>
-  </si>
-  <si>
-    <t>AttackMultiplier</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>AllowVantage</t>
-  </si>
-  <si>
-    <t>AllowFollowUp</t>
-  </si>
-  <si>
-    <t>AllowAlacrity</t>
-  </si>
-  <si>
-    <t>AllowCounter</t>
-  </si>
-  <si>
-    <t>AttackCount</t>
-  </si>
-  <si>
-    <t>Weapon</t>
-  </si>
-  <si>
-    <t>(list#sep=,),SLG.WeaponType</t>
-  </si>
-  <si>
-    <t>weapon type restrict, empty=no restrict</t>
-  </si>
-  <si>
-    <t>allow foe's vantage skill</t>
-  </si>
-  <si>
-    <t>allow self's follow up</t>
-  </si>
-  <si>
-    <t>allow self's alacrity</t>
-  </si>
-  <si>
-    <t>allow foe's attack</t>
-  </si>
-  <si>
-    <t>RangeMin</t>
-  </si>
-  <si>
-    <t>attack percent</t>
-  </si>
-  <si>
-    <t>RangeMax</t>
   </si>
 </sst>
 </file>
@@ -187,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF89839E-84C3-46D9-8CA9-EE50402BCD93}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -502,7 +448,7 @@
     <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,35 +458,9 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -550,87 +470,19 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Skills.xlsx
+++ b/Datas/Skills.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD8748A-D494-49FB-A0A8-36B09B4F7279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE74C56-6AA3-4C9E-8099-43F03FE1739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{09B82691-0FBA-46A1-9333-30E97AB679FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="skill_effect" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +61,48 @@
   </si>
   <si>
     <t>NormalAttack</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>伤害倍率</t>
+  </si>
+  <si>
+    <t>AddDmg</t>
+  </si>
+  <si>
+    <t>加值</t>
+  </si>
+  <si>
+    <t>SkillEffect</t>
+  </si>
+  <si>
+    <t>技能效果</t>
+  </si>
+  <si>
+    <t>SPCost</t>
+  </si>
+  <si>
+    <t>消耗SP</t>
+  </si>
+  <si>
+    <t>造成伤害</t>
+  </si>
+  <si>
+    <t>AnimTime1</t>
+  </si>
+  <si>
+    <t>前摇动画时间</t>
+  </si>
+  <si>
+    <t>后摇动画时间</t>
+  </si>
+  <si>
+    <t>AnimTime2</t>
   </si>
 </sst>
 </file>
@@ -429,26 +472,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF89839E-84C3-46D9-8CA9-EE50402BCD93}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,9 +502,27 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -470,19 +532,100 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9D7CBC-BCED-4D75-A1AE-19EC16A943EC}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
